--- a/Text/01.기능정의서/1005_기능정의서(영우).xlsx
+++ b/Text/01.기능정의서/1005_기능정의서(영우).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의서-1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>번호</t>
   </si>
@@ -885,6 +885,39 @@
   </si>
   <si>
     <t>F-PR-13</t>
+  </si>
+  <si>
+    <t>F-BC-PR-06</t>
+  </si>
+  <si>
+    <t>F-BC-PR-07</t>
+  </si>
+  <si>
+    <t>F-BC-PR-08</t>
+  </si>
+  <si>
+    <t>F-BC-PR-09</t>
+  </si>
+  <si>
+    <t>F-BC-PR-10</t>
+  </si>
+  <si>
+    <t>F-BC-PR-11</t>
+  </si>
+  <si>
+    <t>F-BC-PR-12</t>
+  </si>
+  <si>
+    <t>F-BC-PR-13</t>
+  </si>
+  <si>
+    <t>F-BC-PM-04</t>
+  </si>
+  <si>
+    <t>- DB에서 게시글 제목 가져오고 표시</t>
+  </si>
+  <si>
+    <t>- DB에서 게시글 내용 가져오고 표시</t>
   </si>
 </sst>
 </file>
@@ -3672,11 +3705,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R162"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3788,13 +3821,6 @@
       <c r="I4" s="39"/>
       <c r="J4" s="32"/>
       <c r="K4" s="34"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
     </row>
     <row r="5" spans="1:18" s="38" customFormat="1">
       <c r="A5" s="31"/>
@@ -3808,13 +3834,6 @@
       <c r="I5" s="39"/>
       <c r="J5" s="32"/>
       <c r="K5" s="40"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
     </row>
     <row r="6" spans="1:18" s="38" customFormat="1">
       <c r="A6" s="31"/>
@@ -3828,13 +3847,6 @@
       <c r="I6" s="39"/>
       <c r="J6" s="32"/>
       <c r="K6" s="41"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
     </row>
     <row r="7" spans="1:18" s="45" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A7" s="31"/>
@@ -4715,12 +4727,14 @@
     <row r="40" spans="1:18" s="38" customFormat="1">
       <c r="A40" s="31"/>
       <c r="B40" s="32" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C40" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32" t="s">
         <v>186</v>
@@ -4747,12 +4761,14 @@
     <row r="41" spans="1:18" s="38" customFormat="1">
       <c r="A41" s="31"/>
       <c r="B41" s="32" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C41" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32" t="s">
         <v>186</v>
@@ -4779,12 +4795,14 @@
     <row r="42" spans="1:18" s="38" customFormat="1">
       <c r="A42" s="31"/>
       <c r="B42" s="32" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C42" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32" t="s">
         <v>186</v>
@@ -4811,12 +4829,14 @@
     <row r="43" spans="1:18" s="38" customFormat="1">
       <c r="A43" s="31"/>
       <c r="B43" s="32" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
         <v>186</v>
@@ -4843,12 +4863,14 @@
     <row r="44" spans="1:18" s="38" customFormat="1">
       <c r="A44" s="31"/>
       <c r="B44" s="32" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C44" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32" t="s">
@@ -4871,12 +4893,14 @@
     <row r="45" spans="1:18" s="38" customFormat="1" ht="33.000000">
       <c r="A45" s="31"/>
       <c r="B45" s="32" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C45" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32" t="s">
@@ -4901,12 +4925,14 @@
     <row r="46" spans="1:18" s="38" customFormat="1" ht="33.000000">
       <c r="A46" s="31"/>
       <c r="B46" s="32" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C46" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32" t="s">
@@ -4931,12 +4957,14 @@
     <row r="47" spans="1:18" s="38" customFormat="1">
       <c r="A47" s="31"/>
       <c r="B47" s="32" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C47" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32" t="s">
@@ -4968,7 +4996,7 @@
       <c r="J48" s="32"/>
       <c r="K48" s="34"/>
     </row>
-    <row r="49" spans="1:11" s="38" customFormat="1">
+    <row r="49" spans="1:18" s="38" customFormat="1">
       <c r="A49" s="31"/>
       <c r="B49" s="32" t="s">
         <v>147</v>
@@ -4995,7 +5023,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="38" customFormat="1">
+    <row r="50" spans="1:18" s="38" customFormat="1">
       <c r="A50" s="31"/>
       <c r="B50" s="32" t="s">
         <v>148</v>
@@ -5018,7 +5046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="38" customFormat="1">
+    <row r="51" spans="1:18" s="38" customFormat="1">
       <c r="A51" s="31"/>
       <c r="B51" s="32" t="s">
         <v>149</v>
@@ -5045,7 +5073,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="38" customFormat="1">
+    <row r="52" spans="1:18" s="38" customFormat="1">
       <c r="A52" s="31"/>
       <c r="B52" s="32" t="s">
         <v>150</v>
@@ -5070,7 +5098,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="38" customFormat="1">
+    <row r="53" spans="1:18" s="38" customFormat="1">
       <c r="A53" s="31"/>
       <c r="B53" s="32" t="s">
         <v>151</v>
@@ -5093,7 +5121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="38" customFormat="1">
+    <row r="54" spans="1:18" s="38" customFormat="1">
       <c r="A54" s="31"/>
       <c r="B54" s="32" t="s">
         <v>152</v>
@@ -5117,10 +5145,10 @@
       </c>
       <c r="J54" s="32"/>
       <c r="K54" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="38" customFormat="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="38" customFormat="1">
       <c r="A55" s="31"/>
       <c r="B55" s="32" t="s">
         <v>153</v>
@@ -5133,19 +5161,21 @@
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
+      <c r="I55" s="32" t="s">
+        <v>187</v>
+      </c>
       <c r="J55" s="32"/>
       <c r="K55" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="38" customFormat="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="38" customFormat="1">
       <c r="A56" s="31"/>
       <c r="B56" s="32" t="s">
         <v>154</v>
@@ -5157,58 +5187,77 @@
         <v>17</v>
       </c>
       <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
+      <c r="F56" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G56" s="32" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
-      <c r="K56" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="38" customFormat="1">
+      <c r="K56" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="38" customFormat="1">
       <c r="A57" s="31"/>
       <c r="B57" s="32" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="C57" s="32" t="s">
         <v>156</v>
       </c>
       <c r="D57" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="38" customFormat="1">
+      <c r="A58" s="31"/>
+      <c r="B58" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32" t="s">
+      <c r="E58" s="32"/>
+      <c r="F58" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="32"/>
-      <c r="K57" s="22" t="s">
+      <c r="G58" s="32"/>
+      <c r="H58" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="32"/>
+      <c r="K58" s="22" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -5221,7 +5270,7 @@
       <c r="J59" s="38"/>
       <c r="K59" s="38"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:18">
       <c r="A60" s="38"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
@@ -5234,7 +5283,7 @@
       <c r="J60" s="38"/>
       <c r="K60" s="38"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:18">
       <c r="A61" s="38"/>
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
@@ -5247,7 +5296,7 @@
       <c r="J61" s="38"/>
       <c r="K61" s="38"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:18">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -5260,7 +5309,7 @@
       <c r="J62" s="38"/>
       <c r="K62" s="38"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:18">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -5273,7 +5322,7 @@
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:18">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -5467,13 +5516,6 @@
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
       <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="38"/>
@@ -5687,6 +5729,13 @@
       <c r="I89" s="38"/>
       <c r="J89" s="38"/>
       <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
+      <c r="Q89" s="38"/>
+      <c r="R89" s="38"/>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="38"/>
@@ -5793,30 +5842,30 @@
       <c r="K97" s="38"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="45"/>
-      <c r="J98" s="45"/>
-      <c r="K98" s="45"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="38"/>
@@ -6104,317 +6153,31 @@
       <c r="J121" s="38"/>
       <c r="K121" s="38"/>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="38"/>
-      <c r="B139" s="38"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="38"/>
-      <c r="J139" s="38"/>
-      <c r="K139" s="38"/>
+    <row r="122" spans="1:11">
+      <c r="A122" s="38"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="38"/>
+      <c r="K122" s="38"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="0"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="0"/>
-      <c r="D140" s="0"/>
-      <c r="E140" s="0"/>
-      <c r="F140" s="0"/>
-      <c r="G140" s="0"/>
-      <c r="H140" s="0"/>
-      <c r="I140" s="0"/>
-      <c r="J140" s="0"/>
-      <c r="K140" s="3"/>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="0"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="0"/>
-      <c r="D141" s="0"/>
-      <c r="E141" s="0"/>
-      <c r="F141" s="0"/>
-      <c r="G141" s="0"/>
-      <c r="H141" s="0"/>
-      <c r="I141" s="0"/>
-      <c r="J141" s="0"/>
-      <c r="K141" s="3"/>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="0"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="0"/>
-      <c r="D142" s="0"/>
-      <c r="E142" s="0"/>
-      <c r="F142" s="0"/>
-      <c r="G142" s="0"/>
-      <c r="H142" s="0"/>
-      <c r="I142" s="0"/>
-      <c r="J142" s="0"/>
-      <c r="K142" s="3"/>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="0"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="0"/>
-      <c r="D143" s="0"/>
-      <c r="E143" s="0"/>
-      <c r="F143" s="0"/>
-      <c r="G143" s="0"/>
-      <c r="H143" s="0"/>
-      <c r="I143" s="0"/>
-      <c r="J143" s="0"/>
-      <c r="K143" s="3"/>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144" s="0"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="0"/>
-      <c r="D144" s="0"/>
-      <c r="E144" s="0"/>
-      <c r="F144" s="0"/>
-      <c r="G144" s="0"/>
-      <c r="H144" s="0"/>
-      <c r="I144" s="0"/>
-      <c r="J144" s="0"/>
-      <c r="K144" s="3"/>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="0"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="0"/>
-      <c r="D145" s="0"/>
-      <c r="E145" s="0"/>
-      <c r="F145" s="0"/>
-      <c r="G145" s="0"/>
-      <c r="H145" s="0"/>
-      <c r="I145" s="0"/>
-      <c r="J145" s="0"/>
-      <c r="K145" s="3"/>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146" s="0"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="0"/>
-      <c r="D146" s="0"/>
-      <c r="E146" s="0"/>
-      <c r="F146" s="0"/>
-      <c r="G146" s="0"/>
-      <c r="H146" s="0"/>
-      <c r="I146" s="0"/>
-      <c r="J146" s="0"/>
-      <c r="K146" s="3"/>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147" s="0"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="0"/>
-      <c r="D147" s="0"/>
-      <c r="E147" s="0"/>
-      <c r="F147" s="0"/>
-      <c r="G147" s="0"/>
-      <c r="H147" s="0"/>
-      <c r="I147" s="0"/>
-      <c r="J147" s="0"/>
-      <c r="K147" s="3"/>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148" s="0"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="0"/>
-      <c r="D148" s="0"/>
-      <c r="E148" s="0"/>
-      <c r="F148" s="0"/>
-      <c r="G148" s="0"/>
-      <c r="H148" s="0"/>
-      <c r="I148" s="0"/>
-      <c r="J148" s="0"/>
-      <c r="K148" s="3"/>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149" s="0"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="0"/>
-      <c r="D149" s="0"/>
-      <c r="E149" s="0"/>
-      <c r="F149" s="0"/>
-      <c r="G149" s="0"/>
-      <c r="H149" s="0"/>
-      <c r="I149" s="0"/>
-      <c r="J149" s="0"/>
-      <c r="K149" s="3"/>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150" s="0"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="0"/>
-      <c r="D150" s="0"/>
-      <c r="E150" s="0"/>
-      <c r="F150" s="0"/>
-      <c r="G150" s="0"/>
-      <c r="H150" s="0"/>
-      <c r="I150" s="0"/>
-      <c r="J150" s="0"/>
-      <c r="K150" s="3"/>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151" s="0"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="0"/>
-      <c r="D151" s="0"/>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
-      <c r="H151" s="0"/>
-      <c r="I151" s="0"/>
-      <c r="J151" s="0"/>
-      <c r="K151" s="3"/>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152" s="0"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="0"/>
-      <c r="D152" s="0"/>
-      <c r="E152" s="0"/>
-      <c r="F152" s="0"/>
-      <c r="G152" s="0"/>
-      <c r="H152" s="0"/>
-      <c r="I152" s="0"/>
-      <c r="J152" s="0"/>
-      <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153" s="0"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="0"/>
-      <c r="D153" s="0"/>
-      <c r="E153" s="0"/>
-      <c r="F153" s="0"/>
-      <c r="G153" s="0"/>
-      <c r="H153" s="0"/>
-      <c r="I153" s="0"/>
-      <c r="J153" s="0"/>
-      <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154" s="0"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="0"/>
-      <c r="D154" s="0"/>
-      <c r="E154" s="0"/>
-      <c r="F154" s="0"/>
-      <c r="G154" s="0"/>
-      <c r="H154" s="0"/>
-      <c r="I154" s="0"/>
-      <c r="J154" s="0"/>
-      <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155" s="0"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="0"/>
-      <c r="D155" s="0"/>
-      <c r="E155" s="0"/>
-      <c r="F155" s="0"/>
-      <c r="G155" s="0"/>
-      <c r="H155" s="0"/>
-      <c r="I155" s="0"/>
-      <c r="J155" s="0"/>
-      <c r="K155" s="3"/>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156" s="0"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="0"/>
-      <c r="D156" s="0"/>
-      <c r="E156" s="0"/>
-      <c r="F156" s="0"/>
-      <c r="G156" s="0"/>
-      <c r="H156" s="0"/>
-      <c r="I156" s="0"/>
-      <c r="J156" s="0"/>
-      <c r="K156" s="3"/>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="0"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="0"/>
-      <c r="D157" s="0"/>
-      <c r="E157" s="0"/>
-      <c r="F157" s="0"/>
-      <c r="G157" s="0"/>
-      <c r="H157" s="0"/>
-      <c r="I157" s="0"/>
-      <c r="J157" s="0"/>
-      <c r="K157" s="3"/>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="0"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="0"/>
-      <c r="D158" s="0"/>
-      <c r="E158" s="0"/>
-      <c r="F158" s="0"/>
-      <c r="G158" s="0"/>
-      <c r="H158" s="0"/>
-      <c r="I158" s="0"/>
-      <c r="J158" s="0"/>
-      <c r="K158" s="3"/>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="0"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="0"/>
-      <c r="D159" s="0"/>
-      <c r="E159" s="0"/>
-      <c r="F159" s="0"/>
-      <c r="G159" s="0"/>
-      <c r="H159" s="0"/>
-      <c r="I159" s="0"/>
-      <c r="J159" s="0"/>
-      <c r="K159" s="3"/>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="0"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="0"/>
-      <c r="D160" s="0"/>
-      <c r="E160" s="0"/>
-      <c r="F160" s="0"/>
-      <c r="G160" s="0"/>
-      <c r="H160" s="0"/>
-      <c r="I160" s="0"/>
-      <c r="J160" s="0"/>
-      <c r="K160" s="3"/>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="0"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="0"/>
-      <c r="D161" s="0"/>
-      <c r="E161" s="0"/>
-      <c r="F161" s="0"/>
-      <c r="G161" s="0"/>
-      <c r="H161" s="0"/>
-      <c r="I161" s="0"/>
-      <c r="J161" s="0"/>
-      <c r="K161" s="3"/>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="0"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="0"/>
-      <c r="D162" s="0"/>
-      <c r="E162" s="0"/>
-      <c r="F162" s="0"/>
-      <c r="G162" s="0"/>
-      <c r="H162" s="0"/>
-      <c r="I162" s="0"/>
-      <c r="J162" s="0"/>
-      <c r="K162" s="3"/>
+      <c r="A140" s="38"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="38"/>
+      <c r="J140" s="38"/>
+      <c r="K140" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Text/01.기능정의서/1005_기능정의서(영우).xlsx
+++ b/Text/01.기능정의서/1005_기능정의서(영우).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의서-1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>번호</t>
   </si>
@@ -918,6 +918,56 @@
   </si>
   <si>
     <t>- DB에서 게시글 내용 가져오고 표시</t>
+  </si>
+  <si>
+    <t>시험풀기</t>
+  </si>
+  <si>
+    <t>- 셀렉트 박스</t>
+  </si>
+  <si>
+    <t>- 셀렉트 박스
+- 셀레트 박스의 자격증 항목 선택</t>
+  </si>
+  <si>
+    <t>- 셀렉트 박스
+- 셀레트 박스의 자격증 항목 선택 기능</t>
+  </si>
+  <si>
+    <t>- 셀렉트 박스
+- 셀렉트 박스의 자격증 항목 선택 기능</t>
+  </si>
+  <si>
+    <t>- 셀렉트 박스
+- 셀렉트 박스의 자격증 항목 선택 시 기출문제 영역 보임</t>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택 시 기출문제 영역 보임</t>
+  </si>
+  <si>
+    <t>- 셀렉트 박스의 자격증 항목 선택 시 기출문제 영역 보임</t>
+  </si>
+  <si>
+    <t>- 셀렉트 박스의 자격증 항목 선택시 기출문제 영역 보임</t>
+  </si>
+  <si>
+    <t>- 셀렉트 박스의 자격증 항목 선택</t>
+  </si>
+  <si>
+    <t>- 자격증 선택시 표시
+- DB에서 기출문제지를 읽어오고, 셀렉트박스로 선택</t>
+  </si>
+  <si>
+    <t>- 자격증 선택시 노출
+- DB에서 기출문제지를 읽어오고, 셀렉트박스로 선택</t>
+  </si>
+  <si>
+    <t>- 기출문제지 선택시 노출
+- DB에서 과목을 읽어오고, 체크박스로 선택</t>
+  </si>
+  <si>
+    <t>- 년도 선택시 노출
+- DB에서 과목을 읽어오고, 체크박스로 선택</t>
   </si>
 </sst>
 </file>
@@ -2329,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3705,11 +3755,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3848,7 +3898,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="1:18" s="45" customFormat="1" ht="16.500000" customHeight="1">
+    <row r="7" spans="1:18" s="45" customFormat="1" ht="39.750000" customHeight="1">
       <c r="A7" s="31"/>
       <c r="B7" s="32" t="s">
         <v>173</v>
@@ -3872,7 +3922,7 @@
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="42" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
@@ -3906,7 +3956,7 @@
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="22" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="L8" s="44"/>
       <c r="M8" s="44"/>
@@ -3940,7 +3990,7 @@
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="22" t="s">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
@@ -4015,7 +4065,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="32" t="s">
@@ -4047,7 +4097,7 @@
       </c>
       <c r="C13" s="72"/>
       <c r="D13" s="32" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="39" t="s">
@@ -4081,7 +4131,7 @@
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="32" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21" t="s">
@@ -4113,7 +4163,7 @@
       </c>
       <c r="C15" s="72"/>
       <c r="D15" s="32" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="32" t="s">
@@ -4147,7 +4197,7 @@
       </c>
       <c r="C16" s="72"/>
       <c r="D16" s="32" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="32"/>
@@ -4177,7 +4227,7 @@
       </c>
       <c r="C17" s="72"/>
       <c r="D17" s="32" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="32"/>
@@ -4207,7 +4257,7 @@
       </c>
       <c r="C18" s="72"/>
       <c r="D18" s="32" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="32" t="s">
@@ -4239,7 +4289,7 @@
       </c>
       <c r="C19" s="72"/>
       <c r="D19" s="32" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
@@ -4267,7 +4317,7 @@
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="32" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
@@ -4633,7 +4683,7 @@
       <c r="B35" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="32" t="s">
         <v>19</v>
       </c>
@@ -4996,7 +5046,7 @@
       <c r="J48" s="32"/>
       <c r="K48" s="34"/>
     </row>
-    <row r="49" spans="1:18" s="38" customFormat="1">
+    <row r="49" spans="1:11" s="38" customFormat="1">
       <c r="A49" s="31"/>
       <c r="B49" s="32" t="s">
         <v>147</v>
@@ -5023,7 +5073,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="38" customFormat="1">
+    <row r="50" spans="1:11" s="38" customFormat="1">
       <c r="A50" s="31"/>
       <c r="B50" s="32" t="s">
         <v>148</v>
@@ -5046,7 +5096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="38" customFormat="1">
+    <row r="51" spans="1:11" s="38" customFormat="1">
       <c r="A51" s="31"/>
       <c r="B51" s="32" t="s">
         <v>149</v>
@@ -5073,7 +5123,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="38" customFormat="1">
+    <row r="52" spans="1:11" s="38" customFormat="1">
       <c r="A52" s="31"/>
       <c r="B52" s="32" t="s">
         <v>150</v>
@@ -5098,7 +5148,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="38" customFormat="1">
+    <row r="53" spans="1:11" s="38" customFormat="1">
       <c r="A53" s="31"/>
       <c r="B53" s="32" t="s">
         <v>151</v>
@@ -5121,7 +5171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="38" customFormat="1">
+    <row r="54" spans="1:11" s="38" customFormat="1">
       <c r="A54" s="31"/>
       <c r="B54" s="32" t="s">
         <v>152</v>
@@ -5148,7 +5198,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="38" customFormat="1">
+    <row r="55" spans="1:11" s="38" customFormat="1">
       <c r="A55" s="31"/>
       <c r="B55" s="32" t="s">
         <v>153</v>
@@ -5175,7 +5225,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="38" customFormat="1">
+    <row r="56" spans="1:11" s="38" customFormat="1">
       <c r="A56" s="31"/>
       <c r="B56" s="32" t="s">
         <v>154</v>
@@ -5200,7 +5250,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="38" customFormat="1">
+    <row r="57" spans="1:11" s="38" customFormat="1">
       <c r="A57" s="31"/>
       <c r="B57" s="32" t="s">
         <v>244</v>
@@ -5223,7 +5273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="38" customFormat="1">
+    <row r="58" spans="1:11" s="38" customFormat="1">
       <c r="A58" s="31"/>
       <c r="B58" s="32" t="s">
         <v>155</v>
@@ -5249,15 +5299,8 @@
       <c r="K58" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-    </row>
-    <row r="59" spans="1:18">
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -5270,7 +5313,7 @@
       <c r="J59" s="38"/>
       <c r="K59" s="38"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:11">
       <c r="A60" s="38"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
@@ -5283,7 +5326,7 @@
       <c r="J60" s="38"/>
       <c r="K60" s="38"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:11">
       <c r="A61" s="38"/>
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
@@ -5296,7 +5339,7 @@
       <c r="J61" s="38"/>
       <c r="K61" s="38"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:11">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -5309,7 +5352,7 @@
       <c r="J62" s="38"/>
       <c r="K62" s="38"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:11">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -5322,7 +5365,7 @@
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:11">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
